--- a/venv/main/output_x_1e-2.xlsx
+++ b/venv/main/output_x_1e-2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\managing multi-rooming\round 3\REcodes\venv\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B80A9DF-8CB5-4E5D-9035-54C6FB2E8069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC7F1A-C46B-4271-8A09-144D607A3C13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7806" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -71,7 +71,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -424,20 +423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="3" max="3" width="14.734375" customWidth="1"/>
-    <col min="4" max="4" width="18.15625" customWidth="1"/>
-    <col min="8" max="8" width="13.89453125" customWidth="1"/>
-    <col min="9" max="9" width="15.7890625" customWidth="1"/>
-    <col min="10" max="10" width="17.578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -503,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.39999999999999919</v>
+        <v>0.3999999999999993</v>
       </c>
       <c r="K2">
-        <v>3.9999999999999918E-2</v>
+        <v>3.9999999999999931E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -538,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3974999999999993</v>
+        <v>0.39749999999999941</v>
       </c>
       <c r="K3">
-        <v>3.9501562499999927E-2</v>
+        <v>3.9501562499999941E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -573,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.39499999999999919</v>
+        <v>0.3949999999999993</v>
       </c>
       <c r="K4">
         <v>3.900624999999993E-2</v>
@@ -593,7 +586,7 @@
         <v>0.39250000000000002</v>
       </c>
       <c r="E5">
-        <v>3.8514062499999988E-2</v>
+        <v>3.8514062500000001E-2</v>
       </c>
       <c r="F5">
         <v>0.35249999999999998</v>
@@ -611,7 +604,7 @@
         <v>0.39249999999999918</v>
       </c>
       <c r="K5">
-        <v>3.8514062499999918E-2</v>
+        <v>3.8514062499999932E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -625,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.38999999999999979</v>
+        <v>0.39</v>
       </c>
       <c r="E6">
-        <v>3.8024999999999989E-2</v>
+        <v>3.8025000000000003E-2</v>
       </c>
       <c r="F6">
         <v>0.36</v>
@@ -646,7 +639,7 @@
         <v>0.37999999999999928</v>
       </c>
       <c r="K6">
-        <v>3.799999999999993E-2</v>
+        <v>3.7999999999999937E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -681,7 +674,7 @@
         <v>0.36499999999999932</v>
       </c>
       <c r="K7">
-        <v>3.7412499999999918E-2</v>
+        <v>3.7412499999999932E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -707,7 +700,7 @@
         <v>0.41499999999999998</v>
       </c>
       <c r="H8">
-        <v>2.2265625000000639E-2</v>
+        <v>2.2265625000000629E-2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -716,7 +709,7 @@
         <v>0.33281249999999929</v>
       </c>
       <c r="K8">
-        <v>3.6769775390625002E-2</v>
+        <v>3.6769775390624988E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -733,7 +726,7 @@
         <v>0.38250000000000001</v>
       </c>
       <c r="E9">
-        <v>3.6576562499999993E-2</v>
+        <v>3.65765625E-2</v>
       </c>
       <c r="F9">
         <v>0.38500000000000001</v>
@@ -742,7 +735,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="H9">
-        <v>2.1328125000000139E-2</v>
+        <v>2.1328125000000132E-2</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -818,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0.1699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="K11" s="2">
         <v>3.4747174072265623E-2</v>
@@ -902,13 +895,13 @@
         <v>0.34250000000000003</v>
       </c>
       <c r="C14" s="2">
-        <v>8.791015625000051E-2</v>
+        <v>8.7910156250000482E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.31054687499999939</v>
+        <v>0.31054687499999961</v>
       </c>
       <c r="E14" s="2">
-        <v>3.4365130615234371E-2</v>
+        <v>3.4365130615234378E-2</v>
       </c>
       <c r="F14" s="2">
         <v>0.35249999999999998</v>
@@ -975,10 +968,10 @@
         <v>0.18603515625000061</v>
       </c>
       <c r="D16">
-        <v>0.2058593749999994</v>
+        <v>0.20585937499999951</v>
       </c>
       <c r="E16">
-        <v>3.4079193115234371E-2</v>
+        <v>3.4079193115234392E-2</v>
       </c>
       <c r="F16">
         <v>0.35249999999999998</v>
@@ -1007,10 +1000,10 @@
         <v>0.34250000000000003</v>
       </c>
       <c r="C17">
-        <v>0.23416015625000061</v>
+        <v>0.2341601562500005</v>
       </c>
       <c r="D17">
-        <v>0.15539062499999931</v>
+        <v>0.15539062499999939</v>
       </c>
       <c r="E17">
         <v>3.4013861083984367E-2</v>
@@ -1042,13 +1035,13 @@
         <v>0.34250000000000003</v>
       </c>
       <c r="C18">
-        <v>0.28166015625000068</v>
+        <v>0.28166015625000063</v>
       </c>
       <c r="D18">
-        <v>0.10617187499999931</v>
+        <v>0.1061718749999994</v>
       </c>
       <c r="E18">
-        <v>3.4000286865234368E-2</v>
+        <v>3.4000286865234382E-2</v>
       </c>
       <c r="F18">
         <v>0.35249999999999998</v>
@@ -1077,10 +1070,10 @@
         <v>0.34250000000000003</v>
       </c>
       <c r="C19">
-        <v>0.32853515625000068</v>
+        <v>0.32853515625000063</v>
       </c>
       <c r="D19">
-        <v>5.8203124999999252E-2</v>
+        <v>5.820312499999937E-2</v>
       </c>
       <c r="E19">
         <v>3.4038470458984373E-2</v>
@@ -1112,13 +1105,13 @@
         <v>0.34250000000000003</v>
       </c>
       <c r="C20">
-        <v>0.37478515625000081</v>
+        <v>0.37478515625000058</v>
       </c>
       <c r="D20">
-        <v>1.148437499999925E-2</v>
+        <v>1.148437499999937E-2</v>
       </c>
       <c r="E20">
-        <v>3.4128411865234368E-2</v>
+        <v>3.4128411865234382E-2</v>
       </c>
       <c r="F20">
         <v>0.35249999999999998</v>
@@ -1349,7 +1342,288 @@
         <v>3.4224609375000013E-2</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>0.16250000000000009</v>
+      </c>
+      <c r="B27">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>0.16500000000000009</v>
+      </c>
+      <c r="B28">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C28">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.32</v>
+      </c>
+      <c r="H28">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>0.16750000000000009</v>
+      </c>
+      <c r="B29">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.315</v>
+      </c>
+      <c r="H29">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>0.1700000000000001</v>
+      </c>
+      <c r="B30">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C30">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G30">
+        <v>0.31</v>
+      </c>
+      <c r="H30">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>0.1725000000000001</v>
+      </c>
+      <c r="B31">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C31">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>0.1750000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="H32">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>0.1775000000000001</v>
+      </c>
+      <c r="B33">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G33">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>0.1800000000000001</v>
+      </c>
+      <c r="B34">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3.4224609375000013E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.37125000000000008</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>3.4224609375000013E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>